--- a/milestone 4/Documents/traceability-matrix.xlsx
+++ b/milestone 4/Documents/traceability-matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sampreetklair/Documents/Seneca/semester2/Assignments/SFT221-Assignments/Group Project/ms4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sampreetklair/Documents/Seneca/semester2/SFT221-ZDD/SFT211 Group 5/milestone 4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3C098-CC4B-E74C-AF10-8EB463DD25BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0690324-D70C-AC47-9670-BAED712C983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -109,51 +109,9 @@
     <t>R008</t>
   </si>
   <si>
-    <t>findTruckForShipment</t>
-  </si>
-  <si>
-    <t>compareTrucks</t>
-  </si>
-  <si>
-    <t>loadTruck</t>
-  </si>
-  <si>
-    <t>unloadTruck</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>addRoute</t>
-  </si>
-  <si>
-    <t>canLoadPackage</t>
-  </si>
-  <si>
-    <t>printMap</t>
-  </si>
-  <si>
-    <t>addPtToRoute</t>
-  </si>
-  <si>
-    <t>addPointToRouteIfNot</t>
-  </si>
-  <si>
-    <t>shortestPath</t>
-  </si>
-  <si>
-    <t>getPossibleMoves</t>
-  </si>
-  <si>
-    <t>getClosestPoint</t>
-  </si>
-  <si>
     <t>Test ID</t>
   </si>
   <si>
-    <t>Requirement ID --&gt;</t>
-  </si>
-  <si>
     <t>Have 3 different trucks that have designated routes in a specific map represented by a 25x25 square grid</t>
   </si>
   <si>
@@ -169,9 +127,6 @@
     <t>The trucks can divert from their routes and pass through white spaces in the map to deliver packages. The package must be placed in a truck that will divert the least distance from its route</t>
   </si>
   <si>
-    <t>Functions</t>
-  </si>
-  <si>
     <t>✔️</t>
   </si>
   <si>
@@ -185,6 +140,9 @@
   </si>
   <si>
     <t>Packages come in square boxes with only 3 possible sizes: 0.5 cubic meter, 1 cubic meter, and 2 cubic meter.</t>
+  </si>
+  <si>
+    <t>Requirement</t>
   </si>
 </sst>
 </file>
@@ -251,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -274,13 +232,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,16 +310,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +644,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -648,542 +656,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:M1"/>
+  <mergeCells count="3">
     <mergeCell ref="A4:A23"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
